--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-549772.2018171942</v>
+        <v>-552284.6101985589</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>23.81802663387681</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>176.803067157084</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734120907</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.5242737749945</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004727</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>110.8215959484946</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>219.4410227901668</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>285.2083353502999</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>65.53378126910258</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734129911</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.11763325060683</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004727</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>216.9143240752078</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>332.8023417046115</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.14692287839116</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>59.64355545146878</v>
       </c>
       <c r="Y10" t="n">
-        <v>172.9822426984009</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>91.89996056624759</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>187.2551470558694</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>173.5437604722314</v>
       </c>
       <c r="T16" t="n">
-        <v>80.56412890121804</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>22.10695458833874</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.7302028825775</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>22.54881804343173</v>
+        <v>125.2851635392052</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>103.8784673763403</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>46.35517081455656</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>70.8196413444507</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>71.56327578339665</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3427,10 +3427,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>5.421623586788709</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,13 +3673,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652589</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352486</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1285.591601078698</v>
+        <v>1133.32083113111</v>
       </c>
       <c r="C2" t="n">
-        <v>916.6290841382863</v>
+        <v>764.3583141906979</v>
       </c>
       <c r="D2" t="n">
-        <v>916.6290841382863</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="E2" t="n">
-        <v>916.6290841382863</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F2" t="n">
-        <v>505.6431793486788</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G2" t="n">
-        <v>90.57072919367522</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218349</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218349</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296689</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052372</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609174</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609174</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993396</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993396</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649826</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2435.796531379711</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2062.330773118631</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1672.19144114282</v>
+        <v>1519.920671195231</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064761</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080142</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986317</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291645</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513961</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068416</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486471</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962574</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609174</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.4780323548192</v>
+        <v>359.619250712236</v>
       </c>
       <c r="C4" t="n">
-        <v>364.5418494269123</v>
+        <v>359.619250712236</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145766</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218349</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218349</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218349</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218349</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218349</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279957</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764921</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760413</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.07675150232</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846022</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846022</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415548</v>
+        <v>1533.837200664267</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415548</v>
+        <v>1244.73433378991</v>
       </c>
       <c r="V4" t="n">
-        <v>1361.012987209661</v>
+        <v>990.0498455840232</v>
       </c>
       <c r="W4" t="n">
-        <v>1139.355388431715</v>
+        <v>990.0498455840232</v>
       </c>
       <c r="X4" t="n">
-        <v>911.3658375336973</v>
+        <v>762.0602946860058</v>
       </c>
       <c r="Y4" t="n">
-        <v>690.5732583901672</v>
+        <v>541.2677155424757</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.318139675982</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477181</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927146</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609173</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.07534488301</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539439</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W5" t="n">
-        <v>2741.012457539439</v>
+        <v>2722.369447994162</v>
       </c>
       <c r="X5" t="n">
-        <v>2367.546699278359</v>
+        <v>2348.903689733083</v>
       </c>
       <c r="Y5" t="n">
-        <v>1977.407367302547</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215814</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410641</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886744</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533344</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.6936570343842</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="C7" t="n">
-        <v>608.7574741064773</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.181730276492</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760412</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846022</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846022</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415548</v>
+        <v>1516.503286061574</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.594608541191</v>
+        <v>1227.400419187217</v>
       </c>
       <c r="V7" t="n">
-        <v>1326.594608541191</v>
+        <v>1227.400419187217</v>
       </c>
       <c r="W7" t="n">
-        <v>1326.594608541191</v>
+        <v>937.9832491502568</v>
       </c>
       <c r="X7" t="n">
-        <v>1098.605057643174</v>
+        <v>709.9936982522395</v>
       </c>
       <c r="Y7" t="n">
-        <v>877.8124784996436</v>
+        <v>709.9936982522395</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1934.208022973022</v>
+        <v>1480.516858765519</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1111.554341825107</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>753.2886432183566</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>753.2886432183566</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4823,31 +4823,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3008.178897562519</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2677.116010218948</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2324.347354948834</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X8" t="n">
-        <v>2324.347354948834</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="Y8" t="n">
-        <v>1934.208022973022</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>482.8906159540807</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="C10" t="n">
-        <v>313.9544330261738</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672848</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.675339798491</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W10" t="n">
-        <v>1067.258169761531</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="X10" t="n">
-        <v>839.2686188635132</v>
+        <v>1164.493166002944</v>
       </c>
       <c r="Y10" t="n">
-        <v>664.5390807843204</v>
+        <v>943.7005868594143</v>
       </c>
     </row>
     <row r="11">
@@ -5033,19 +5033,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5057,31 +5057,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.5007694647277</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>631.5645865368208</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>481.447947124485</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>333.5348535420919</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>186.6449060441816</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>186.6449060441816</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2190.770766644916</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438498</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1492342949674</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5270,22 +5270,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5297,19 +5297,19 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349515</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061504</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038364</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797765</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832666</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832666</v>
+        <v>2271.666355830532</v>
       </c>
       <c r="T16" t="n">
-        <v>2298.539471851637</v>
+        <v>2052.064890853473</v>
       </c>
       <c r="U16" t="n">
-        <v>2009.464245195835</v>
+        <v>1762.98966419767</v>
       </c>
       <c r="V16" t="n">
-        <v>1754.779756989948</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W16" t="n">
-        <v>1465.362586952987</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X16" t="n">
-        <v>1237.37303605497</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
-        <v>1016.58045691144</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>2022.176527098168</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5771,28 +5771,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>221.3431781811722</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>221.3431781811722</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2174.285961605313</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U22" t="n">
-        <v>1885.210734949511</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V22" t="n">
-        <v>1630.526246743624</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W22" t="n">
-        <v>1341.109076706663</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X22" t="n">
-        <v>1113.119525808646</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>408.925855915485</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2333.093974969474</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2113.492509992416</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1824.417283336614</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6206,55 +6206,55 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6312,19 +6312,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2192.573257978144</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1903.498031322342</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1648.813543116455</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="29">
@@ -6455,22 +6455,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6482,28 +6482,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1361.415228493873</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7211,10 +7211,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,16 +7357,16 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7494,13 +7494,13 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656816</v>
@@ -7555,13 +7555,13 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7576,7 +7576,7 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.037624215071525e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-3.255978819893812e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>270.7897377534437</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292584</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>132.5923911930412</v>
       </c>
     </row>
     <row r="3">
@@ -22702,19 +22702,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.30770640694276</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>108.7273533276746</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>48.3947522799763</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>30.15030327141886</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>7.482525529413209</v>
       </c>
       <c r="T16" t="n">
-        <v>136.8413214260702</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016463</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>264.0775198009054</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.85445046951727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24142,7 +24142,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>194.8566322838565</v>
+        <v>92.12028678808304</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>63.36835372228754</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>134.671115187088</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>146.5858089828376</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>214.9597225531944</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25363,10 +25363,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>211.9838267404996</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>-1.014743972193151e-13</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1015317.429464546</v>
+        <v>1015317.429464547</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1161162.89592848</v>
+        <v>1161162.895928481</v>
       </c>
     </row>
     <row r="8">
@@ -26314,10 +26314,10 @@
         <v>229059.6437758986</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
         <v>262322.644899252</v>
@@ -26326,22 +26326,22 @@
         <v>262322.6448992519</v>
       </c>
       <c r="G2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="H2" t="n">
         <v>262322.644899252</v>
       </c>
       <c r="I2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="J2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="K2" t="n">
         <v>262322.644899252</v>
       </c>
       <c r="L2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="M2" t="n">
         <v>262322.644899252</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727594</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972777</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24616.41034080824</v>
+        <v>24616.4103408086</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815692</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815704</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26433,28 +26433,28 @@
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11776.97621680588</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11776.97621680583</v>
+      </c>
+      <c r="L4" t="n">
         <v>11776.97621680584</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11776.97621680583</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11776.97621680587</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
+        <v>19767.8354798993</v>
+      </c>
+      <c r="O4" t="n">
         <v>19767.83547989928</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19767.8354798993</v>
       </c>
       <c r="P4" t="n">
         <v>19767.83547989929</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613934</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1232235.452853897</v>
+        <v>-1232526.060018742</v>
       </c>
       <c r="C6" t="n">
-        <v>67940.62365634194</v>
+        <v>67940.62365634175</v>
       </c>
       <c r="D6" t="n">
-        <v>67940.62365634224</v>
+        <v>67940.62365634178</v>
       </c>
       <c r="E6" t="n">
-        <v>-175989.3229488157</v>
+        <v>-176024.0608742517</v>
       </c>
       <c r="F6" t="n">
-        <v>149423.1388585386</v>
+        <v>149388.4009331033</v>
       </c>
       <c r="G6" t="n">
-        <v>149423.1388585393</v>
+        <v>149388.4009331033</v>
       </c>
       <c r="H6" t="n">
-        <v>149423.1388585391</v>
+        <v>149388.4009331033</v>
       </c>
       <c r="I6" t="n">
-        <v>149423.138858539</v>
+        <v>149388.4009331033</v>
       </c>
       <c r="J6" t="n">
-        <v>-68108.0635387387</v>
+        <v>-68142.80146417406</v>
       </c>
       <c r="K6" t="n">
-        <v>149423.1388585391</v>
+        <v>149388.4009331033</v>
       </c>
       <c r="L6" t="n">
-        <v>149423.1388585391</v>
+        <v>149388.4009331033</v>
       </c>
       <c r="M6" t="n">
-        <v>64368.11092302734</v>
+        <v>64333.37299759165</v>
       </c>
       <c r="N6" t="n">
-        <v>124478.905878446</v>
+        <v>124478.9058784459</v>
       </c>
       <c r="O6" t="n">
         <v>143906.6238720776</v>
@@ -26719,10 +26719,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022935</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022935</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022935</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022935</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>76.84248030592832</v>
       </c>
     </row>
     <row r="3">
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>67.08197554642416</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97.52550631318064</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>283.7071874483104</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.71434693133047</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2.634625200961409</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>74.0737040370999</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>249.8482490805108</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>166.0660999375684</v>
       </c>
       <c r="Y10" t="n">
-        <v>45.60241065369391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974801</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003814</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781693</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970253</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,46 +31197,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098822</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974801</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003814</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781693</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970253</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,46 +31434,46 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098822</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31835,10 +31835,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>302.967544750805</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>555.0107214892114</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N15" t="n">
-        <v>746.4857620875786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>663.4727207607269</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>255.6522884173741</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32965,7 +32965,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,19 +33263,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>370.9642309107746</v>
+        <v>640.7275049411307</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>454.1257695262137</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>490.507583235568</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597725</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306631</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701983</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.633379393484</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451106</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789377</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597725</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306631</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701983</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.633379393484</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451106</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789377</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>160.8335108287866</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>423.6690094058781</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N15" t="n">
-        <v>615.1440500042453</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096369</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>520.8764763162825</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>128.8146617507074</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>228.3679864663302</v>
+        <v>498.1312604966863</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>351.9532034556938</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
